--- a/data/trans_camb/P55_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P55_1-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>30,83</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-26,11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>30.29588347074606</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-24.61488322746334</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.2412235311876731</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 61,06</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-45,61; -5,73</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,05; 25,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>4.733308216313335</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-44.64906604308012</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-18.13143941475684</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>75,4%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-41,52%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>61.06310321705711</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-3.65254503866505</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>23.13703690103772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>9,0; 320,14</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-66,01; -11,88</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-29,8; 67,88</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.729278090388948</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.3803453748681266</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.004470082819173923</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.07659434979368268</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.6316607525922395</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.298288469143127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,72; 15,64</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,15; 8,82</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; 8,18</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>2.958272196801664</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.07530146677805746</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.5792094951906536</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,96%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,63%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,42%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.1488270282851922</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.058922886148561</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.5282770545176341</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-17,92; 23,87</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-16,14; 14,51</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-13,02; 12,35</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.18720898518941</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.47075294139093</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.697933648722525</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,42</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,6</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.55852863686277</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.046975802303656</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.073366548671261</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,02; 14,03</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,51; 12,12</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 10,77</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.002030423316231585</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.01641138466612284</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.007648683789743568</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,31%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,87%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1917177495472976</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1671242680085878</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1379841792543555</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 17,51</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,8; 15,32</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 13,31</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.2226404768537645</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1524296531122522</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1255202055120357</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>5.018270002536019</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>4.832688061989787</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>4.941670439709456</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-3.818262266325021</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-2.328028416965879</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.5953970657417209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>12.92693047733841</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>12.52682791981593</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>10.36369933155315</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.05813170099474253</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.05724908155469174</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.0579397713696073</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>6,53</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-4,69</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.04042112177481783</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.02649074590780182</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.006677655326358964</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 17,63</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-12,58; 2,48</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-5,76; 6,34</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.1627096958659203</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.1574205987304126</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1270954977050204</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>8,97%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-6,47%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>5.828317629679713</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-4.199339813439085</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.6405573835000733</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-4,0; 26,84</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-16,5; 3,61</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-7,61; 9,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.652187457624811</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-11.59979732840758</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.637815104788121</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>16.71644195069828</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.815220705782266</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.15781547174471</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.07941064242978552</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.05806552230705071</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.008793477416356337</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.04678181852729715</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1565981539027211</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.07358287162699439</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2501787611571418</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.0382053118184864</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.08878869987101645</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
